--- a/恋恋有词/High.xlsx
+++ b/恋恋有词/High.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>adj. 父亲的；得自父亲的；父亲般的</t>
   </si>
@@ -272,6 +272,478 @@
   </si>
   <si>
     <t>curb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 代用品；代替者</t>
+  </si>
+  <si>
+    <t>vi. 替代</t>
+  </si>
+  <si>
+    <t>vt. 代替</t>
+  </si>
+  <si>
+    <t>substitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 起伏，波动</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 严厉的；严酷的；刺耳的；粗糙的；刺目的；丑陋的</t>
+  </si>
+  <si>
+    <t>harsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 首要的；第一的；最初的</t>
+  </si>
+  <si>
+    <t>n. 总理，首相；（加拿大的）地区总理</t>
+  </si>
+  <si>
+    <t>premier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 可疑的；怀疑的；多疑的</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易决策</t>
+  </si>
+  <si>
+    <t>deal-making</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 比赛，竞赛；（控制权或权力的）争夺；争论，争辩，争执</t>
+  </si>
+  <si>
+    <t>v. 争取赢得（比赛、选举等）；参加（竞争或选举），竞争；争辩，争论；就……提出异议，反驳</t>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 规定；条款；准备；[经] 供应品</t>
+  </si>
+  <si>
+    <t>vt. 供给…食物及必需品</t>
+  </si>
+  <si>
+    <t>provision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 有争议的；有争论的</t>
+  </si>
+  <si>
+    <t>controversial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 部门；扇形，扇区；象限仪；函数尺</t>
+  </si>
+  <si>
+    <t>vt. 把…分成扇形</t>
+  </si>
+  <si>
+    <t>adj. 有毒的；中毒的</t>
+  </si>
+  <si>
+    <t>toxic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 常规，惯例；生活乏味；（演出中的）一套动作；（计算机）例行程序</t>
+  </si>
+  <si>
+    <t>adj. 常规的，例行的；平常的；乏味的</t>
+  </si>
+  <si>
+    <t>v. 按惯例安排</t>
+  </si>
+  <si>
+    <t>routine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 描绘；扮演</t>
+  </si>
+  <si>
+    <t>portray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 保守的</t>
+  </si>
+  <si>
+    <t>n. 保守派，守旧者</t>
+  </si>
+  <si>
+    <t>conservative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 自由主义的；慷慨的；不拘泥的；宽大的</t>
+  </si>
+  <si>
+    <t>n. 自由主义者</t>
+  </si>
+  <si>
+    <t>liberal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 信赖；信心；受信赖的人或物</t>
+  </si>
+  <si>
+    <t>reliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 边界；范围；分界线</t>
+  </si>
+  <si>
+    <t>boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 智力的；聪明的；理智的</t>
+  </si>
+  <si>
+    <t>n. 知识分子；凭理智做事者</t>
+  </si>
+  <si>
+    <t>intellectual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpretation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 解释；翻译；演出</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>促进；推销；发扬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 发起人，创始者；教导者；[计] 启动程序；引爆器</t>
+  </si>
+  <si>
+    <t>initiator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 开始，创始；发起；使初步了解</t>
+  </si>
+  <si>
+    <t>n. 开始；新加入者，接受初步知识者</t>
+  </si>
+  <si>
+    <t>adj. 新加入的；接受初步知识的</t>
+  </si>
+  <si>
+    <t>initiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 实例；情况；建议</t>
+  </si>
+  <si>
+    <t>vt. 举...为例</t>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 块，块状；肿块；瘤；很多；笨人</t>
+  </si>
+  <si>
+    <t>vt. 混在一起；使成块状；忍耐；笨重地移动</t>
+  </si>
+  <si>
+    <t>vi. 结块</t>
+  </si>
+  <si>
+    <t>adj. 成团的；总共的</t>
+  </si>
+  <si>
+    <t>adv. 很；非常</t>
+  </si>
+  <si>
+    <t>lump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 极化（等于polarize）</t>
+  </si>
+  <si>
+    <t>polarise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 君主，帝王；最高统治者</t>
+  </si>
+  <si>
+    <t>monarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 仅仅的；只不过的</t>
+  </si>
+  <si>
+    <t>n. 小湖；池塘</t>
+  </si>
+  <si>
+    <t>vt. 体现，使具体化；具体表达</t>
+  </si>
+  <si>
+    <t>embody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 免疫者；免除者</t>
+  </si>
+  <si>
+    <t>adj. 免疫的；免于……的，免除的</t>
+  </si>
+  <si>
+    <t>immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 假定；预料；以…为先决条件</t>
+  </si>
+  <si>
+    <t>presuppose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 见多识广的；消息灵通的；有根据的；明智的（猜测或决定）</t>
+  </si>
+  <si>
+    <t>informed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 读写能力；精通文学</t>
+  </si>
+  <si>
+    <t>literacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [植] 子房；[解剖] 卵巢</t>
+  </si>
+  <si>
+    <t>ovary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 生殖的；再生的；复制的</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 力劝，催促；驱策，推进</t>
+  </si>
+  <si>
+    <t>n. 强烈的欲望，迫切要求；推动力</t>
+  </si>
+  <si>
+    <t>vi. 强烈要求</t>
+  </si>
+  <si>
+    <t>n. 骚乱，动荡；[流] 湍流；狂暴</t>
+  </si>
+  <si>
+    <t>turbulence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 短语，习语，措辞，乐句</t>
+  </si>
+  <si>
+    <t>vt. 措词，将（乐曲）分成乐句</t>
+  </si>
+  <si>
+    <t>phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 鉴定的；[核] 临界的；批评的，爱挑剔的；危险的；决定性的；评论的</t>
+  </si>
+  <si>
+    <t>n. 回顾；复习；评论；检讨；检阅</t>
+  </si>
+  <si>
+    <t>vt. 回顾；检查；复审</t>
+  </si>
+  <si>
+    <t>vi. 回顾；复习功课；写评论</t>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 局部的；偏爱的；不公平的</t>
+  </si>
+  <si>
+    <t>partial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 泄漏；渗漏物；漏出量</t>
+  </si>
+  <si>
+    <t>leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 使渗漏，泄露；漏，渗；泄漏出去；透露</t>
+  </si>
+  <si>
+    <t>n. 泄漏；漏洞，裂缝；泄漏出的液体（或气体）；（秘密信息的）透露；撒尿；漏电</t>
+  </si>
+  <si>
+    <t>n. [金融] 非流动性；非现金的；不能立即付现</t>
+  </si>
+  <si>
+    <t>illiquidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 程度；范围；长度</t>
+  </si>
+  <si>
+    <t>磨损</t>
+  </si>
+  <si>
+    <t>wear-and-tear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人类学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人类学家</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 修改，改变；变更</t>
+  </si>
+  <si>
+    <t>alteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 马刺；鞭策；山嘴；（公路或铁路的）支线；骨刺</t>
+  </si>
+  <si>
+    <t>v. 用踢马刺驱马前进；激励；促进；紧贴主干剪短（副梢）</t>
+  </si>
+  <si>
+    <t>spur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 改变，更改</t>
+  </si>
+  <si>
+    <t>vi. 改变；修改</t>
+  </si>
+  <si>
+    <t>alter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,283 +1100,818 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>108</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>113</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>134</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>136</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>137</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>144</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>148</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>150</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>152</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/恋恋有词/High.xlsx
+++ b/恋恋有词/High.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unit1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unit2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>adj. 父亲的；得自父亲的；父亲般的</t>
   </si>
@@ -746,12 +747,676 @@
     <t>alter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>vt. 分配；散布；分开；把…分类</t>
+  </si>
+  <si>
+    <t>distribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 分布；分配；供应</t>
+  </si>
+  <si>
+    <t>distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 精神的；脑力的；疯的</t>
+  </si>
+  <si>
+    <t>n. 精神病患者</t>
+  </si>
+  <si>
+    <t>mental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 按发生时间顺序排列的；按时间计算的；按先后顺序的</t>
+  </si>
+  <si>
+    <t>chronological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 复杂的；错综的，缠结的</t>
+  </si>
+  <si>
+    <t>intricate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 易损性；弱点</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找；搜寻</t>
+  </si>
+  <si>
+    <t>in search of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 专家；行家；能手</t>
+  </si>
+  <si>
+    <t>adj. 熟练的；内行的；老练的</t>
+  </si>
+  <si>
+    <t>expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 官僚；官僚主义者</t>
+  </si>
+  <si>
+    <t>bureaucrat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 控制，引导；驾驶</t>
+  </si>
+  <si>
+    <t>vi. 驾驶，掌舵；行驶</t>
+  </si>
+  <si>
+    <t>steer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 善良的；有道德的；贞洁的；正直的；有效力的</t>
+  </si>
+  <si>
+    <t>virtuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. [计] 虚拟的；实质上的，事实上的（但未在名义上或正式获承认）</t>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 卡路里（热量单位）</t>
+  </si>
+  <si>
+    <t>calorie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 营养物；滋养物</t>
+  </si>
+  <si>
+    <t>adj. 营养的；滋养的</t>
+  </si>
+  <si>
+    <t>nutrient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 拥有；财产；领地；自制；着迷</t>
+  </si>
+  <si>
+    <t>possession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 理解；恐惧；逮捕；忧惧</t>
+  </si>
+  <si>
+    <t>apprehension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 智慧；才智；智力</t>
+  </si>
+  <si>
+    <t>wit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 区分；辨别；使杰出，使表现突出</t>
+  </si>
+  <si>
+    <t>vi. 区别，区分；辨别</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 卓越的，著名的；高贵的，受尊重的</t>
+  </si>
+  <si>
+    <t>distinguished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 最后；根本；基本上</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ever-growing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日益增长的</t>
+  </si>
+  <si>
+    <t>adj. 国内的；家庭的；驯养的；一心只管家务的</t>
+  </si>
+  <si>
+    <t>n. 国货；佣人</t>
+  </si>
+  <si>
+    <t>domestic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 模式；图案；样品</t>
+  </si>
+  <si>
+    <t>vt. 模仿；以图案装饰</t>
+  </si>
+  <si>
+    <t>vi. 形成图案</t>
+  </si>
+  <si>
+    <t>parttern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 大头针，别针，针；栓；琐碎物；引脚</t>
+  </si>
+  <si>
+    <t>vt. 钉住；压住；将……用针别住</t>
+  </si>
+  <si>
+    <t>pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 发现，查明；确定；使受约束；阻止；迫使（某人）明确表态</t>
+  </si>
+  <si>
+    <t>pin down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. （合法地）授予，允许；（勉强）承认，同意</t>
+  </si>
+  <si>
+    <t>n. （政府）拨款，补助金；授予，给予；合法转让，正式授予</t>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 巨人；伟人；巨大的动物；巨型植物；大公司；（天文）巨星；</t>
+  </si>
+  <si>
+    <t>adj. 巨大的；巨人般的；伟大的</t>
+  </si>
+  <si>
+    <t>giant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 使适应；改编</t>
+  </si>
+  <si>
+    <t>vi. 适应</t>
+  </si>
+  <si>
+    <t>adapt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 采取；接受；收养；正式通过</t>
+  </si>
+  <si>
+    <t>vi. 采取；过继</t>
+  </si>
+  <si>
+    <t>adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 同盟国；伙伴；同盟者；助手</t>
+  </si>
+  <si>
+    <t>vt. 使联盟；使联合</t>
+  </si>
+  <si>
+    <t>vi. 联合；结盟</t>
+  </si>
+  <si>
+    <t>ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 召集；（军队）重新集合；复原；价格回升；集结；联合；（使）重新振作；参加汽车拉力赛；对……善意打趣；嘲笑</t>
+  </si>
+  <si>
+    <t>n. 公众集会；汽车拉力赛；往返拍击；止跌回升；竞赛</t>
+  </si>
+  <si>
+    <t>rally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 倾向于；（使）倾向于；赞同（某人或某事）；有……倾向；（使）倾斜；低头</t>
+  </si>
+  <si>
+    <t>n. 斜坡；斜面</t>
+  </si>
+  <si>
+    <t>adj. 全部的；全体的；一切在内的</t>
+  </si>
+  <si>
+    <t>adv. 全部地；总的说来</t>
+  </si>
+  <si>
+    <t>n. 工装裤；罩衫</t>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 合格的，合适的；符合条件的；有资格当选的</t>
+  </si>
+  <si>
+    <t>n. 合格者；适任者；有资格者</t>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 每两周的，两周一次的</t>
+  </si>
+  <si>
+    <t>adv. 每两周地，两周一次地</t>
+  </si>
+  <si>
+    <t>n. 双周刊</t>
+  </si>
+  <si>
+    <t>fortnightly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 分配；指派；[计][数] 赋值</t>
+  </si>
+  <si>
+    <t>vi. 将财产过户（尤指过户给债权人</t>
+  </si>
+  <si>
+    <t>assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 铁路；铁路公司</t>
+  </si>
+  <si>
+    <t>v. 迫使……仓促行事； 强使……草率通过； 轻率判处； 在铁路工作；乘火车旅行</t>
+  </si>
+  <si>
+    <t>railroad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 铁轨；扶手；横杆；围栏</t>
+  </si>
+  <si>
+    <t>vi. 抱怨；责骂</t>
+  </si>
+  <si>
+    <t>vt. 铺铁轨；以横木围栏</t>
+  </si>
+  <si>
+    <t>rail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 相关的；切题的；中肯的；有重大关系的；有意义的，目的明确的</t>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 汇票；草稿；选派；（尤指房间、烟囱、炉子等供暖系统中的）（小股）气流</t>
+  </si>
+  <si>
+    <t>vt. 起草；制定；征募</t>
+  </si>
+  <si>
+    <t>vi. 拟稿；绘样；作草图</t>
+  </si>
+  <si>
+    <t>adj. 初步画出或（写出）的；（设计、草图、提纲或版本）正在起草中的，草拟的；以草稿形式的；草图的</t>
+  </si>
+  <si>
+    <t>draft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织，实施；引导</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行为举止</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 祖先；血统</t>
+  </si>
+  <si>
+    <t>ancestry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [遗][细胞][染料] 染色体（形容词chromosomal，副词chromosomally）</t>
+  </si>
+  <si>
+    <t>chromosome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 继承；遗传而得</t>
+  </si>
+  <si>
+    <t>vi. 成为继承人</t>
+  </si>
+  <si>
+    <t>inherit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [细胞] 线粒体</t>
+  </si>
+  <si>
+    <t>mitochondrion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数 mitochondria</t>
+  </si>
+  <si>
+    <t>assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 维护，坚持；断言；主张；声称</t>
+  </si>
+  <si>
+    <t>asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 资产；优点；有用的东西；有利条件；财产；有价值的人或物</t>
+  </si>
+  <si>
+    <t>vt. 申请；涂，敷；应用</t>
+  </si>
+  <si>
+    <t>vi. 申请；涂，敷；适用；请求</t>
+  </si>
+  <si>
+    <t>apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 申请人，申请者；请求者</t>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. （使）附属，隶属；加入，加盟，并入；接纳；紧密联系</t>
+  </si>
+  <si>
+    <t>n. 分支机构；子公司；分社；联号</t>
+  </si>
+  <si>
+    <t>affiliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 友好关系；加入；联盟；从属关系</t>
+  </si>
+  <si>
+    <t>affiliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 估计，估价；判断，看法</t>
+  </si>
+  <si>
+    <t>v. 估计，估量；判断，评价</t>
+  </si>
+  <si>
+    <t>另外，此外</t>
+  </si>
+  <si>
+    <t>in addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 主题；起因；科目；主词；（绘画、摄影等的）题材；实验对象；主语；国民；主旋律；主体；中心实体</t>
+  </si>
+  <si>
+    <t>adv. 在……的条件下</t>
+  </si>
+  <si>
+    <t>v. （使）臣服</t>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be subject to 受支配，从属于；常遭受…；有…倾向的
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易遭受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的；有待于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的；受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支配的；受异族统治的；臣服的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 悲观的，厌世的；悲观主义的</t>
+  </si>
+  <si>
+    <t>pessimistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 时尚；一时的爱好；一时流行的狂热</t>
+  </si>
+  <si>
+    <t>fad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 详细审查；监视；细看；选票复查</t>
+  </si>
+  <si>
+    <t>scrutiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 旋，拧；压榨；强迫</t>
+  </si>
+  <si>
+    <t>n. 螺旋；螺丝钉；吝啬鬼</t>
+  </si>
+  <si>
+    <t>vi. 转动，拧</t>
+  </si>
+  <si>
+    <t>screw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screw up =mess up 搞砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 成熟的；充分考虑的；到期的；成年人的</t>
+  </si>
+  <si>
+    <t>vi. 成熟；到期</t>
+  </si>
+  <si>
+    <t>vt. 使…成熟；使…长成；慎重作出</t>
+  </si>
+  <si>
+    <t>mature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 细阅；作详细检查</t>
+  </si>
+  <si>
+    <t>vt. 详细检查；细看</t>
+  </si>
+  <si>
+    <t>n. 仔细或彻底检查</t>
+  </si>
+  <si>
+    <t>scrutinize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 细心的；小心谨慎的；一丝不苟的</t>
+  </si>
+  <si>
+    <t>scrupulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +1444,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF5F6266"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -800,11 +1471,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD193"/>
+    <sheetView topLeftCell="A175" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1919,4 +2596,738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>315</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>317</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>326</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>337</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>343</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C153" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>358</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>360</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/恋恋有词/High.xlsx
+++ b/恋恋有词/High.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="494">
   <si>
     <t>adj. 父亲的；得自父亲的；父亲般的</t>
   </si>
@@ -1409,6 +1409,454 @@
   </si>
   <si>
     <t>scrupulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 政权，政体；社会制度；管理体制</t>
+  </si>
+  <si>
+    <t>crisis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 危机；危险期；决定性时刻</t>
+  </si>
+  <si>
+    <t>adj. 危机的；用于处理危机的</t>
+  </si>
+  <si>
+    <t>n. 君主；独立国；金磅</t>
+  </si>
+  <si>
+    <t>adj. 至高无上的；有主权的；拥有最高统治权的；不折不扣的；有效的</t>
+  </si>
+  <si>
+    <t>sovereign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 可行的；能养活的；能生育的</t>
+  </si>
+  <si>
+    <t>viable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 使…完整；使…成整体；求…的积分；表示…的总和</t>
+  </si>
+  <si>
+    <t>vi. 求积分；取消隔离；成为一体</t>
+  </si>
+  <si>
+    <t>adj. 整合的；完全的</t>
+  </si>
+  <si>
+    <t>n. 一体化；集成体</t>
+  </si>
+  <si>
+    <t>integrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 逮捕；（司法机关）扣留（船只）；阻止；吸引；心跳停止，心脏病发作；</t>
+  </si>
+  <si>
+    <t>n. 逮捕，监禁； 停止，中止</t>
+  </si>
+  <si>
+    <t>arrestee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 被捕者</t>
+  </si>
+  <si>
+    <t>adj. 综合的；广泛的；有理解力的</t>
+  </si>
+  <si>
+    <t>n. 综合学校；专业综合测验</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 通信；一致；相当</t>
+  </si>
+  <si>
+    <t>correspondence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 悖论，反论；似是而非的论点；自相矛盾的人或事</t>
+  </si>
+  <si>
+    <t>paradox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradoxical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 矛盾的；诡论的；似非而是的</t>
+  </si>
+  <si>
+    <t>n. 环境；上下文；来龙去脉</t>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 创新，革新；新方法</t>
+  </si>
+  <si>
+    <t>innovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 革新；修理；恢复活力</t>
+  </si>
+  <si>
+    <t>innovation undertaking = build one's business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 存留，坚持；持续，固执</t>
+  </si>
+  <si>
+    <t>vt. 坚持说，反复说</t>
+  </si>
+  <si>
+    <t>persist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 坚持地；固执地</t>
+  </si>
+  <si>
+    <t>persistly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. （在价值、数量等方面）相等的；等价的；等效的；等量的；同意义的</t>
+  </si>
+  <si>
+    <t>n. 对等的人（或事物）；当量</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 平等的；相等的；胜任的</t>
+  </si>
+  <si>
+    <t>vt. 等于；比得上</t>
+  </si>
+  <si>
+    <t>n. 对手；匹敌；同辈；相等的事物</t>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 使自由化；宽大</t>
+  </si>
+  <si>
+    <t>vi. 自由化</t>
+  </si>
+  <si>
+    <t>liberalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liberal</t>
+  </si>
+  <si>
+    <t>adj. 文字的；逐字的；无夸张的</t>
+  </si>
+  <si>
+    <t>literal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 受过教育的；精通文学的</t>
+  </si>
+  <si>
+    <t>n. 学者</t>
+  </si>
+  <si>
+    <t>adj. 文盲的；不识字的；没受教育的</t>
+  </si>
+  <si>
+    <t>n. 文盲</t>
+  </si>
+  <si>
+    <t>illiterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>adj. 无效的；有病的；残疾的</t>
+  </si>
+  <si>
+    <t>n. 病人；残疾者</t>
+  </si>
+  <si>
+    <t>vt. 使伤残；使退役</t>
+  </si>
+  <si>
+    <t>vi. 变得病弱；因病而奉命退役</t>
+  </si>
+  <si>
+    <t>vt. 使无效；使无价值</t>
+  </si>
+  <si>
+    <t>invalidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 否则；另外；在其他方面</t>
+  </si>
+  <si>
+    <t>adj. 另外的；其他方面的；原本，本来</t>
+  </si>
+  <si>
+    <t>conj. 其他；如果不；然后</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 竞争；奋斗；斗争；争论</t>
+  </si>
+  <si>
+    <t>vt. 主张；为...斗争</t>
+  </si>
+  <si>
+    <t>contend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 动态的；动力的；动力学的；有活力的</t>
+  </si>
+  <si>
+    <t>n. 动态；动力</t>
+  </si>
+  <si>
+    <t>dynatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 动力学，力学</t>
+  </si>
+  <si>
+    <t>dynatics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miserable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 悲惨的；痛苦的；卑鄙的</t>
+  </si>
+  <si>
+    <t>n. 守财奴；吝啬鬼；（石油工程上用的）凿井机</t>
+  </si>
+  <si>
+    <t>miser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 痛苦，悲惨；不幸；苦恼；穷困</t>
+  </si>
+  <si>
+    <t>misery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时时刻刻的</t>
+  </si>
+  <si>
+    <t>moment-to-moment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 紧张的；拉紧的</t>
+  </si>
+  <si>
+    <t>vt. 变得紧张；使拉紧</t>
+  </si>
+  <si>
+    <t>vi. 拉紧，变得紧张</t>
+  </si>
+  <si>
+    <t>n. 时态</t>
+  </si>
+  <si>
+    <t>tense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去式</t>
+  </si>
+  <si>
+    <t>past-tense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [电子] 电路，回路；巡回；一圈；环道</t>
+  </si>
+  <si>
+    <t>vi. 环行</t>
+  </si>
+  <si>
+    <t>vt. 绕回…环行</t>
+  </si>
+  <si>
+    <t>circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 仪表板；嵌板；座谈小组，全体陪审员</t>
+  </si>
+  <si>
+    <t>vt. 嵌镶板</t>
+  </si>
+  <si>
+    <t>panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. （尤指法庭的）裁定；统治，支配</t>
+  </si>
+  <si>
+    <t>adj. 统治的，支配的；主导的；流行的，普遍的</t>
+  </si>
+  <si>
+    <t>ruling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 评价；估价；求…的值</t>
+  </si>
+  <si>
+    <t>vi. 评价；估价</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 评价，鉴定；估价</t>
+  </si>
+  <si>
+    <t>appraise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 评定；估价；对…征税</t>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直到；相当于；忙于…，在做…；由…决定的</t>
+  </si>
+  <si>
+    <t>up to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 诗；诗意，诗情；诗歌艺术</t>
+  </si>
+  <si>
+    <t>poetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 从前的，前者的；前任的</t>
+  </si>
+  <si>
+    <t>n. 模型，样板；起形成作用的人</t>
+  </si>
+  <si>
+    <t>former</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 以前；原来</t>
+  </si>
+  <si>
+    <t>formerly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 高兴</t>
+  </si>
+  <si>
+    <t>vi. 高兴</t>
+  </si>
+  <si>
+    <t>vt. 使高兴</t>
+  </si>
+  <si>
+    <t>delight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 倾斜身体；倾斜；倚靠；（使）斜靠</t>
+  </si>
+  <si>
+    <t>adj. 瘦且健康的；脂肪少的；难以赚钱的；贫乏的；高效低耗的；（混合汽化燃料）空气所占比例高的</t>
+  </si>
+  <si>
+    <t>n. 瘦肉；倾斜；倾斜度</t>
+  </si>
+  <si>
+    <t>lean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖；靠在…上</t>
+  </si>
+  <si>
+    <t>lean on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 全天的；全天候的；不分昼夜的；连续不停的</t>
+  </si>
+  <si>
+    <t>round-the-clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2600,17 +3048,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="59.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,7 +3568,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>313</v>
       </c>
@@ -3323,6 +3771,582 @@
       </c>
       <c r="B165" s="2" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>361</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>363</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>368</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>375</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>376</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>379</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>383</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>385</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>387</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C198" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>394</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>399</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>401</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>404</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>408</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>411</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>414</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>416</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>421</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>422</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>428</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>432</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>435</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>438</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>440</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>441</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>444</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>446</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>448</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>453</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>455</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>459</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>462</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>465</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>468</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>470</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>472</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>474</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>476</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>479</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>481</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>485</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B292" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>489</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C294" t="s">
+        <v>491</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B296" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>493</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/恋恋有词/High.xlsx
+++ b/恋恋有词/High.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unit1" sheetId="1" r:id="rId1"/>
     <sheet name="Unit2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unit3" sheetId="3" r:id="rId3"/>
+    <sheet name="zhui" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="672">
   <si>
     <t>adj. 父亲的；得自父亲的；父亲般的</t>
   </si>
@@ -714,10 +716,6 @@
       </rPr>
       <t>人类学家</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anthropology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1859,12 +1857,792 @@
     <t>round-the-clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>n. 代码，密码；编码；法典</t>
+  </si>
+  <si>
+    <t>vt. 编码；制成法典</t>
+  </si>
+  <si>
+    <t>vi. 指定遗传密码</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 司法部；法官；司法制度</t>
+  </si>
+  <si>
+    <t>adj. 司法的；法官的；法院的</t>
+  </si>
+  <si>
+    <t>judiciary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 标准；教规；正典圣经；教士</t>
+  </si>
+  <si>
+    <t>canon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 专利权；专利证；专利品</t>
+  </si>
+  <si>
+    <t>adj. 专利的；特许生产或销售的；显著的；公开的；（脉管等）开放的</t>
+  </si>
+  <si>
+    <t>v. 取得……的专利权；授予专利</t>
+  </si>
+  <si>
+    <t>n. 履行；实行；满足（感）</t>
+  </si>
+  <si>
+    <t>fulfillment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dict</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ative</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -dict=order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neg-=not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 关联</t>
+  </si>
+  <si>
+    <t>vt. 使有相互关系；互相有关系</t>
+  </si>
+  <si>
+    <t>n. 相关物；相关联的人</t>
+  </si>
+  <si>
+    <t>correlate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 相反的；对面的；对立的</t>
+  </si>
+  <si>
+    <t>n. 对立面；反义词</t>
+  </si>
+  <si>
+    <t>prep. 在…的对面</t>
+  </si>
+  <si>
+    <t>adv. 在对面</t>
+  </si>
+  <si>
+    <t>opposite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 传达；运输；让与</t>
+  </si>
+  <si>
+    <t>convey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 名人；名声</t>
+  </si>
+  <si>
+    <t>celebrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 模糊不清的，模棱两可的；不明确的，不明朗的；引起歧义的</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 补偿，赔偿；抵消</t>
+  </si>
+  <si>
+    <t>vt. 补偿，赔偿；付报酬</t>
+  </si>
+  <si>
+    <t>compansate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soothe</t>
+  </si>
+  <si>
+    <t>vt. 安慰；使平静；缓和</t>
+  </si>
+  <si>
+    <t>vi. 起抚慰作用</t>
+  </si>
+  <si>
+    <t>n. 含糊；不明确；暧昧；模棱两可的话</t>
+  </si>
+  <si>
+    <t>ambiguity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 特别的；详细的；独有的；挑剔的</t>
+  </si>
+  <si>
+    <t>n. 详细说明；个别项目</t>
+  </si>
+  <si>
+    <t>particular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peculiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 特殊的；独特的；奇怪的；罕见的</t>
+  </si>
+  <si>
+    <t>n. 特权；特有财产</t>
+  </si>
+  <si>
+    <t>vt. 说明；口译</t>
+  </si>
+  <si>
+    <t>vi. 解释；翻译</t>
+  </si>
+  <si>
+    <t>interpret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>led</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mis=↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 汽车的；自动的</t>
+  </si>
+  <si>
+    <t>automotive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 装配；集会，集合</t>
+  </si>
+  <si>
+    <t>n. 汇编，编译</t>
+  </si>
+  <si>
+    <t>assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 集合，聚集；装配；收集</t>
+  </si>
+  <si>
+    <t>vi. 集合，聚集</t>
+  </si>
+  <si>
+    <t>assemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 感觉，官能；观念；道理；理智</t>
+  </si>
+  <si>
+    <t>vt. 感觉到；检测</t>
+  </si>
+  <si>
+    <t>sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">an approach to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 大学本科生；大学肄业生</t>
+  </si>
+  <si>
+    <t>adj. 大学本科生的；大学肄业生的</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a grounding in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>有基础的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 螃蟹；蟹肉；脾气乖戾的人；起重机</t>
+  </si>
+  <si>
+    <t>vt. 抱怨；破坏；使偏航</t>
+  </si>
+  <si>
+    <t>vi. 捕蟹；发牢骚；抱怨</t>
+  </si>
+  <si>
+    <t>crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 自大的，傲慢的</t>
+  </si>
+  <si>
+    <t>arrogant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 傲慢的；自大的</t>
+  </si>
+  <si>
+    <t>haughty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 严峻的；严厉的；剧烈的；苛刻的</t>
+  </si>
+  <si>
+    <t>severe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 基本的；必要的；本质的；精华的</t>
+  </si>
+  <si>
+    <t>n. 本质；要素；要点；必需品</t>
+  </si>
+  <si>
+    <t>essential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 罚款，罚金；处罚</t>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incline to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 承诺，保证；委托；承担义务；献身</t>
+  </si>
+  <si>
+    <t>commitment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 预见；预知</t>
+  </si>
+  <si>
+    <t>foresee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 犯罪；把...交托给；指派…作战；使…承担义务；（公开地）表示意见</t>
+  </si>
+  <si>
+    <t>vi. 忠于（某个人、机构等）；承诺</t>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit suicide/crime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be commit to= devote/dedicate/engage oneself in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. （交通）环岛，环状交叉路口；（游乐设施）旋转平台，旋转木马（同 merry-go-round）；（公园、学校的）转椅；迂回路线</t>
+  </si>
+  <si>
+    <t>adj. （说话）迂回的；绕道的；圆形的</t>
+  </si>
+  <si>
+    <t>roundabout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>金融泡沫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 企业家；承包人；主办者</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 企业；事业；进取心；事业心</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 现象；奇迹；杰出的人才</t>
+  </si>
+  <si>
+    <t>phenomenon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">phenomenon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的复数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> phenomena</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 明显的；明白的</t>
+  </si>
+  <si>
+    <t>evident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 紧急的；急迫的</t>
+  </si>
+  <si>
+    <t>urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 结果；重要性；推论</t>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 完全地；全部；统统</t>
+  </si>
+  <si>
+    <t>wholly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 证据，证明；迹象；明显</t>
+  </si>
+  <si>
+    <t>vt. 证明</t>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 离开；出发，起程；违反；去世</t>
+  </si>
+  <si>
+    <t>adj. 逝世的</t>
+  </si>
+  <si>
+    <t>depart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 意识到的；故意的；神志清醒的</t>
+  </si>
+  <si>
+    <t>conscious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 处理；处置；安排</t>
+  </si>
+  <si>
+    <t>vi. 处理；安排；（能够）决定；击败；杀死</t>
+  </si>
+  <si>
+    <t>n. 处置；性情</t>
+  </si>
+  <si>
+    <t>dispose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 可任意处理的；可自由使用的；用完即可丢弃的</t>
+  </si>
+  <si>
+    <t>disposable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposable chopsticks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 衣柜；行头；全部戏装</t>
+  </si>
+  <si>
+    <t>wardrobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 通知；为…做广告；使突出</t>
+  </si>
+  <si>
+    <t>vi. 做广告，登广告；作宣传</t>
+  </si>
+  <si>
+    <t>advertise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 相反的；对立的</t>
+  </si>
+  <si>
+    <t>adv. 相反地</t>
+  </si>
+  <si>
+    <t>n. 相反；反面</t>
+  </si>
+  <si>
+    <t>contrary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 船，舰；[组织] 脉管，血管；容器，器皿</t>
+  </si>
+  <si>
+    <t>vessel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 维持；支撑，承担；忍受；供养；证实</t>
+  </si>
+  <si>
+    <t>sustain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 促进；增加；支援</t>
+  </si>
+  <si>
+    <t>vi. 宣扬；偷窃</t>
+  </si>
+  <si>
+    <t>n. 推动；帮助；宣扬</t>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 提高；加强；增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =enhance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 夸口说，自吹自擂说；以有…而自豪</t>
+  </si>
+  <si>
+    <t>n. 自夸；值得夸耀的事物，引以为荣的事物</t>
+  </si>
+  <si>
+    <t>vi. 自吹自擂</t>
+  </si>
+  <si>
+    <t>boast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 遗传的；基因的；起源的</t>
+  </si>
+  <si>
+    <t>genetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropologist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 范围；球体</t>
+  </si>
+  <si>
+    <t>vt. 包围；放入球内；使…成球形</t>
+  </si>
+  <si>
+    <t>adj. 球体的</t>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 事实上，几乎；实质上</t>
+  </si>
+  <si>
+    <t>virtually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 单独地；仅仅</t>
+  </si>
+  <si>
+    <t>solely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 美德；优点；贞操；功效</t>
+  </si>
+  <si>
+    <t>virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 获利多的</t>
+  </si>
+  <si>
+    <t>lucrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>luc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rative</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luc|lick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 性欲；强烈的欲望</t>
+  </si>
+  <si>
+    <t>vi. 贪求，渴望</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =worthy/earning/expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,6 +2676,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2E3033"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1919,7 +2720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1931,6 +2732,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2213,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2343,7 +3147,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>652</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>183</v>
@@ -2354,36 +3158,36 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3063,934 +3867,940 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" t="s">
+        <v>581</v>
+      </c>
+      <c r="D79" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>314</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>328</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>332</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C142" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>348</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C153" t="s">
         <v>349</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C153" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>360</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>375</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>104</v>
@@ -4003,15 +4813,15 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>149</v>
@@ -4019,334 +4829,334 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>415</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>421</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>440</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>488</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C294" t="s">
+        <v>490</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C294" t="s">
-        <v>491</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4354,4 +5164,799 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>522</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>529</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>530</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>538</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>547</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>550</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>553</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>556</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D60" t="s">
+        <v>559</v>
+      </c>
+      <c r="E60" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>557</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>563</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>564</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>569</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>571</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>573</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>575</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>578</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>580</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>584</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>586</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>589</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D89" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>595</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>598</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>600</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>602</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>605</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>607</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>609</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>611</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>614</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>617</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>619</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>623</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>625</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D123" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>628</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>631</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>635</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>637</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>639</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>643</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D138" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>649</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>651</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>656</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>658</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>660</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>662</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>664</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C158" t="s">
+        <v>671</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/恋恋有词/High.xlsx
+++ b/恋恋有词/High.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="825">
   <si>
     <t>adj. 父亲的；得自父亲的；父亲般的</t>
   </si>
@@ -2635,6 +2635,630 @@
   </si>
   <si>
     <t xml:space="preserve"> =worthy/earning/expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 苦工；劳累；难事；网</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2E3033"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苦干，辛勤劳动；艰难地行走；（使）过度劳累；费力地做</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛辛苦苦地工作</t>
+  </si>
+  <si>
+    <t>toil and moil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 犁；耕</t>
+  </si>
+  <si>
+    <t>vi. 用犁耕田；开路</t>
+  </si>
+  <si>
+    <t>n. 犁；耕地（等于plow）</t>
+  </si>
+  <si>
+    <t>plough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toil/plough through 艰难通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 本质，实质；精华；香精</t>
+  </si>
+  <si>
+    <t>essence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 使…转化；使…颠倒；使…反转；使…前后倒置</t>
+  </si>
+  <si>
+    <t>n. 颠倒的事物；倒置物；倒悬者</t>
+  </si>
+  <si>
+    <t>adj. 转化的</t>
+  </si>
+  <si>
+    <t>invert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>v. 交谈，谈话；认识</t>
+  </si>
+  <si>
+    <t>n. 逆行，逆向；倒；相反的事物；逆命题；反面的事实；相反的说法</t>
+  </si>
+  <si>
+    <t>adj. 相反的，逆向的；颠倒的</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>v. 颠倒；撤销；反转；交换；放弃立场；倒车；打对方付费的电话；（使铅字、图案）印成白或浅色</t>
+  </si>
+  <si>
+    <t>n. 逆向；相反；背面；倒档；失败；（美橄）横式传球；（翻开书的）左手页</t>
+  </si>
+  <si>
+    <t>adj. 相反的；背面的；颠倒的；反身的；（地层）逆断的</t>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take something for grant 把…当成理所当然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 伦理学；伦理观；道德标准</t>
+  </si>
+  <si>
+    <t>ethics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗤之以鼻</t>
+  </si>
+  <si>
+    <t>holding its nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 损失，代价；消费；开支</t>
+  </si>
+  <si>
+    <t>vt. 向…收取费用</t>
+  </si>
+  <si>
+    <t>vi. 被花掉</t>
+  </si>
+  <si>
+    <t>expense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾随</t>
+  </si>
+  <si>
+    <t>come in the wake of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 范围；余地；视野；眼界；导弹射程</t>
+  </si>
+  <si>
+    <t>vt. 审视</t>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with-=re-=back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hold</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 董事会；木板；甲板；膳食</t>
+  </si>
+  <si>
+    <t>vt. 上（飞机、车、船等）；用板盖上；给提供膳宿</t>
+  </si>
+  <si>
+    <t>vi. 寄宿</t>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 连续；继位；继承权；[生态] 演替</t>
+  </si>
+  <si>
+    <t>sucession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 经营管理的；有执行权的；高级的；供重要人物使用的</t>
+  </si>
+  <si>
+    <t>n. 主管；行政领导；（政府的）行政部门；执行委员会</t>
+  </si>
+  <si>
+    <t>executive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往前走，前进；出发，离开</t>
+  </si>
+  <si>
+    <t>move on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 桩，棍子；赌注；火刑；奖金</t>
+  </si>
+  <si>
+    <t>vt. 资助，支持；系…于桩上；把…押下打赌</t>
+  </si>
+  <si>
+    <t>vi. 打赌</t>
+  </si>
+  <si>
+    <t>stake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 宣称，断言；提出…作为理由</t>
+  </si>
+  <si>
+    <t>allege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 指控; 陈述，主张; 宣称; 陈词，陈述;</t>
+  </si>
+  <si>
+    <t>allegation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 品牌，商标；类型；烙印；（独特的）个性；烙铁；污名；燃烧的木头；（诗、文中的）剑</t>
+  </si>
+  <si>
+    <t>v. 败坏（某人）名声；给（牲畜）打烙印；加污名于，谴责；加商标于；促销；铭刻于，铭记；给（产品）设计品牌</t>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 运动；活动；战役，军事行动；竞选</t>
+  </si>
+  <si>
+    <t>v. 领导或参加运动；参加竞选</t>
+  </si>
+  <si>
+    <t>compaign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 皇家的；盛大的；女王的；高贵的；第一流的</t>
+  </si>
+  <si>
+    <t>n. 王室；王室成员</t>
+  </si>
+  <si>
+    <t>royal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 忠诚的，忠心的；忠贞的</t>
+  </si>
+  <si>
+    <t>n. 效忠的臣民；忠实信徒</t>
+  </si>
+  <si>
+    <t>loyal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 名声，名誉；声望</t>
+  </si>
+  <si>
+    <t>reputation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 两足动物的；二足的</t>
+  </si>
+  <si>
+    <t>n. 两足动物</t>
+  </si>
+  <si>
+    <t>bipedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. （车辆，乐器的）踏板</t>
+  </si>
+  <si>
+    <t>v. 骑（自行车）；踩踏板</t>
+  </si>
+  <si>
+    <t>adj. 脚的；脚踏的</t>
+  </si>
+  <si>
+    <t>pedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 造成；使遭受（损伤、痛苦等）；给予（打击等）</t>
+  </si>
+  <si>
+    <t>inflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 徒步的；缺乏想像力的</t>
+  </si>
+  <si>
+    <t>n. 行人；步行者</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian street 步行街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ped-=足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 肢，臂；分支；枝干</t>
+  </si>
+  <si>
+    <t>vt. 切断…的手足；从…上截下树枝</t>
+  </si>
+  <si>
+    <t>limb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 百科全书</t>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 有远见的；宗教幻觉的；空想的；梦想的</t>
+  </si>
+  <si>
+    <t>n. 有眼光的人；出现宗教幻觉的人；梦想家</t>
+  </si>
+  <si>
+    <t>visionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 难以置信的；传说的，寓言中的；极好的</t>
+  </si>
+  <si>
+    <t>fabulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 画笔；漆刷</t>
+  </si>
+  <si>
+    <t>paintbrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 画廊；走廊；旁听席；地道</t>
+  </si>
+  <si>
+    <t>vt. 在…修建走廊；在…挖地道</t>
+  </si>
+  <si>
+    <t>vi. 挖地道</t>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 真实的，真正的；诚恳的</t>
+  </si>
+  <si>
+    <t>genuine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genuine work 真迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不予考虑</t>
+  </si>
+  <si>
+    <t>It’s self-evident that=obvoiusly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 证明，证实；作证</t>
+  </si>
+  <si>
+    <t>vi. 作证；证明</t>
+  </si>
+  <si>
+    <t>testify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 核实；查证</t>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 复制；使加倍</t>
+  </si>
+  <si>
+    <t>n. 副本；复制品</t>
+  </si>
+  <si>
+    <t>adj. 复制的；二重的</t>
+  </si>
+  <si>
+    <t>vi. 复制；重复</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 复制；副本；成倍</t>
+  </si>
+  <si>
+    <t>duplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am-=爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iable</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 和蔼可亲的，亲切的</t>
+  </si>
+  <si>
+    <t>amiable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 管弦乐的；管弦乐队的</t>
+  </si>
+  <si>
+    <t>orchestral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 考古学</t>
+  </si>
+  <si>
+    <t>arch-=①古老的；②弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aeology</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 论述；谈话；演讲</t>
+  </si>
+  <si>
+    <t>vi. 演说；谈论；讲述</t>
+  </si>
+  <si>
+    <t>vt. 说出；演奏出</t>
+  </si>
+  <si>
+    <t>discourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 实体；存在；本质</t>
+  </si>
+  <si>
+    <t>entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也；同样地；还不如；此外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as well as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也；和…一样；不但…而且</t>
+  </si>
+  <si>
+    <t>away=di-/dis-/de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 证明；保证</t>
+  </si>
+  <si>
+    <t>cetify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 证书；文凭，合格证书；电影放映许可证</t>
+  </si>
+  <si>
+    <t>v. 发给证明书，用证书证明</t>
+  </si>
+  <si>
+    <t>certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 锦标赛，联赛；比赛</t>
+  </si>
+  <si>
+    <t>tournament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 怪癖；急转；借口</t>
+  </si>
+  <si>
+    <t>quirk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3017,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3854,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5168,10 +5792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5183,7 +5807,7 @@
     <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>496</v>
       </c>
@@ -5191,12 +5815,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>495</v>
       </c>
@@ -5822,7 +6446,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>651</v>
       </c>
@@ -5830,7 +6454,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>656</v>
       </c>
@@ -5838,17 +6462,17 @@
         <v>653</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>658</v>
       </c>
@@ -5856,7 +6480,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>660</v>
       </c>
@@ -5864,7 +6488,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>662</v>
       </c>
@@ -5872,7 +6496,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>664</v>
       </c>
@@ -5881,6 +6505,627 @@
       </c>
       <c r="C158" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>680</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D160" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>675</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>679</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>683</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>687</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>688</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>692</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>696</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D183" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>699</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>701</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>705</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>707</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>710</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>716</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>718</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>721</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>723</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>727</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>729</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>731</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>734</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="B220" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>737</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>740</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>743</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>745</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>748</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>752</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>754</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>757</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D243" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>763</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>765</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>768</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>770</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>772</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>776</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>778</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D262" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>780</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>785</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>787</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>792</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>794</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>798</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>800</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>801</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>808</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>810</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>812</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>813</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>817</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>820</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>822</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>824</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -5892,16 +7137,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5955,6 +7200,43 @@
         <v>668</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>759</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
